--- a/data/trans_dic/P68-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P68-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P68-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P68-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,61%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>25,18; 34,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>24,97; 38,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>31,32; 48,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>15,92; 30,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>18,61; 32,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>20,57; 35,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>16,73; 37,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>22,76; 52,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,36; 32,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>24,74; 35,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>28,14; 41,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>20,57; 35,44</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>23,06; 28,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>21,8; 27,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>21,97; 27,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>17,55; 23,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>17,25; 23,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>19,15; 26,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>16,36; 22,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>22,3; 29,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>22,04; 26,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>21,75; 26,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>20,68; 24,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>20,36; 24,84</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>14,41; 22,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>10,65; 18,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>14,09; 23,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>12,09; 19,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>17,28; 26,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>15,09; 26,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>19,14; 29,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>17,64; 24,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>16,98; 22,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>13,77; 20,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,81; 24,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>15,85; 20,78</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,72; 26,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>21,12; 25,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>22,43; 27,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>17,13; 21,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,7; 24,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>20,1; 25,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,67; 23,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>22,16; 26,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>22,24; 25,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>21,47; 24,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>21,38; 24,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>20,05; 23,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P68-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P68-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,92; 30,6</t>
+          <t>15,55; 30,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 52,41</t>
+          <t>21,9; 48,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,57; 35,44</t>
+          <t>19,73; 33,76</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>20,89%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 23,28</t>
+          <t>10,55; 22,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,3; 29,08</t>
+          <t>20,29; 35,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,36; 24,84</t>
+          <t>14,76; 24,92</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>18,17%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 19,99</t>
+          <t>12,2; 20,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,39</t>
+          <t>17,52; 24,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,85; 20,78</t>
+          <t>15,74; 20,8</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>20,47%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,41</t>
+          <t>11,61; 20,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 26,88</t>
+          <t>20,64; 29,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 23,39</t>
+          <t>16,24; 23,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P68-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P68-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,18; 34,96</t>
+          <t>24,92; 34,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 38,74</t>
+          <t>25,48; 39,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,32; 48,24</t>
+          <t>30,95; 48,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 30,46</t>
+          <t>15,33; 30,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,61; 32,77</t>
+          <t>18,9; 33,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,57; 35,75</t>
+          <t>19,87; 35,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,73; 37,92</t>
+          <t>16,27; 35,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,9; 48,87</t>
+          <t>21,71; 46,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 32,37</t>
+          <t>24,08; 32,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,74; 35,33</t>
+          <t>25,19; 35,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,14; 41,52</t>
+          <t>28,67; 41,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 33,76</t>
+          <t>19,62; 32,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,06; 28,71</t>
+          <t>23,03; 28,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,8; 27,81</t>
+          <t>21,81; 27,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 27,68</t>
+          <t>22,08; 28,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 22,58</t>
+          <t>9,15; 22,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,25; 23,57</t>
+          <t>17,14; 23,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 26,57</t>
+          <t>19,12; 26,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,36; 22,73</t>
+          <t>16,29; 22,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,29; 35,33</t>
+          <t>20,28; 33,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 26,17</t>
+          <t>21,99; 26,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,75; 26,38</t>
+          <t>21,77; 26,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 24,5</t>
+          <t>20,42; 24,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 24,92</t>
+          <t>15,09; 25,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,41; 22,46</t>
+          <t>14,51; 22,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 18,76</t>
+          <t>11,1; 19,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,09; 23,07</t>
+          <t>14,3; 23,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 20,23</t>
+          <t>11,83; 19,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 26,93</t>
+          <t>17,31; 26,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 26,32</t>
+          <t>14,92; 26,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,14; 29,13</t>
+          <t>19,35; 29,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,25</t>
+          <t>17,53; 24,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,98; 22,83</t>
+          <t>16,97; 23,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 20,52</t>
+          <t>13,78; 20,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 24,79</t>
+          <t>17,94; 24,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 20,8</t>
+          <t>15,74; 20,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,72; 26,87</t>
+          <t>22,82; 26,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 25,85</t>
+          <t>21,12; 25,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,43; 27,16</t>
+          <t>22,45; 27,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 20,81</t>
+          <t>11,39; 20,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 24,18</t>
+          <t>19,17; 24,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,66</t>
+          <t>20,09; 25,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,67; 23,81</t>
+          <t>18,45; 23,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,64; 29,81</t>
+          <t>21,03; 30,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 25,33</t>
+          <t>22,11; 25,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 24,91</t>
+          <t>21,43; 24,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,38; 24,9</t>
+          <t>21,55; 24,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,24; 23,48</t>
+          <t>16,48; 23,21</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensan que su trabajo les afecta negativamente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>111286</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58767</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55581</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29214</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37568</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37934</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18024</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24986</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>148854</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>96701</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>73605</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54200</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>93459; 130473</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46888; 71808</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43319; 67477</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20247; 40794</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28534; 50482</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27819; 49016</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11562; 24904</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17499; 37104</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>126679; 170500</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>81620; 114016</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60507; 88501</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41734; 69932</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>286945</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>225637</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>229382</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>239580</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>118570</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>131572</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>124565</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>238368</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>405515</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>357209</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>353947</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>477948</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>256348; 317390</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>199464; 253625</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>203217; 258605</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>124391; 302963</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>99273; 137367</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>109534; 152898</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>106142; 146971</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>188260; 309597</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>372115; 444361</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>323814; 393650</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>320981; 387906</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>345202; 576223</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>74075</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46089</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63528</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69526</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63983</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46321</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>73708</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>90695</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>138058</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92410</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>137236</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>58813; 91406</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35102; 62165</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49580; 81250</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52685; 88487</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>50428; 77642</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35048; 61551</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59098; 90901</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76477; 107190</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>118198; 160952</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>75940; 111890</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>116997; 159817</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>138766; 184340</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>472305</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>330493</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>348491</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>338320</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>216298</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>354049</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>692427</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>546321</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>564788</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>692369</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>432161; 506905</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>298788; 364414</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>315904; 380945</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>220703; 399871</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>195809; 249326</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>190408; 244374</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>189712; 243154</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>303903; 434415</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>644460; 737682</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>506362; 584174</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>524749; 607799</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>557443; 785016</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>